--- a/results/initial_look/steel_2018_workbook.xlsx
+++ b/results/initial_look/steel_2018_workbook.xlsx
@@ -5770,10 +5770,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>8.105096161728</v>
+        <v>8.53168017024</v>
       </c>
       <c r="E2">
-        <v>6.239987607258001</v>
+        <v>6.56840800764</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5821,10 +5821,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>55.72751425057441</v>
+        <v>59.85513097779282</v>
       </c>
       <c r="E5">
-        <v>59.25385810614242</v>
+        <v>63.63773887806986</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5872,10 +5872,10 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>0.0003918844800000001</v>
+        <v>0.00039188448</v>
       </c>
       <c r="E8">
-        <v>0.0003918844800000001</v>
+        <v>0.0020330640252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5960,7 +5960,7 @@
         <v>0.22849377264</v>
       </c>
       <c r="E13">
-        <v>0.23732122176</v>
+        <v>0.2286131014641601</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5974,10 +5974,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>5.940787344586066</v>
+        <v>5.9407874451072</v>
       </c>
       <c r="E14">
-        <v>4.43544943309194</v>
+        <v>4.808390696328961</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5991,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>0.3800349387011967</v>
+        <v>0.3800349389781</v>
       </c>
       <c r="E15">
-        <v>0.3840246739478069</v>
+        <v>0.4157266588783389</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6042,10 +6042,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>0.4783628366495931</v>
+        <v>0.5026672080000001</v>
       </c>
       <c r="E18">
-        <v>0.4075598592</v>
+        <v>0.4539454164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6059,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>17.60166043833534</v>
+        <v>17.60165278132698</v>
       </c>
       <c r="E19">
-        <v>19.22564503194577</v>
+        <v>18.29284244614103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>56.30817929141578</v>
+        <v>4.840760589203172</v>
       </c>
       <c r="E32">
-        <v>61.30487636702553</v>
+        <v>5.270365393194521</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6297,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.159360535548</v>
+        <v>0.159360519386952</v>
       </c>
       <c r="E33">
-        <v>0.241625084688</v>
+        <v>0.2407727359440001</v>
       </c>
     </row>
   </sheetData>
@@ -9214,10 +9214,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>140.500671913728</v>
+        <v>140.92725592224</v>
       </c>
       <c r="E2">
-        <v>137.439729543258</v>
+        <v>137.7681499436401</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9265,10 +9265,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>596.2587598065744</v>
+        <v>600.3863765337927</v>
       </c>
       <c r="E5">
-        <v>607.8590543861424</v>
+        <v>612.2429351580697</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9316,10 +9316,10 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>0.0003918844800000001</v>
+        <v>0.00039188448</v>
       </c>
       <c r="E8">
-        <v>0.0003918844800000001</v>
+        <v>0.0020330640252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9404,7 +9404,7 @@
         <v>11.02922360064</v>
       </c>
       <c r="E13">
-        <v>10.59085894176</v>
+        <v>10.58215082146416</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9418,10 +9418,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>13.56909507658606</v>
+        <v>13.5690951771072</v>
       </c>
       <c r="E14">
-        <v>8.44715745709194</v>
+        <v>8.820098720328961</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9435,10 +9435,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>17.9259926427012</v>
+        <v>17.9259926429781</v>
       </c>
       <c r="E15">
-        <v>16.3537359139478</v>
+        <v>16.38543789887834</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9486,10 +9486,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>21.1833448766496</v>
+        <v>21.207649248</v>
       </c>
       <c r="E18">
-        <v>20.1574909512</v>
+        <v>20.2038765084</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9503,10 +9503,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>185.2899086583354</v>
+        <v>185.289901001327</v>
       </c>
       <c r="E19">
-        <v>193.5348569039457</v>
+        <v>192.602054318141</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>507.5857667314158</v>
+        <v>456.1183480292032</v>
       </c>
       <c r="E32">
-        <v>513.8529482670256</v>
+        <v>457.8184372931946</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9741,10 +9741,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.371798767548</v>
+        <v>0.371798751386952</v>
       </c>
       <c r="E33">
-        <v>0.472150292688</v>
+        <v>0.471297943944</v>
       </c>
     </row>
   </sheetData>
@@ -9788,10 +9788,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>42.896273725728</v>
+        <v>43.32285773424</v>
       </c>
       <c r="E2">
-        <v>41.830509027258</v>
+        <v>42.15892942764</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9839,10 +9839,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>196.6371152745744</v>
+        <v>200.7647320017928</v>
       </c>
       <c r="E5">
-        <v>221.8517530181424</v>
+        <v>226.2356337900699</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9890,10 +9890,10 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>0.0003918844800000001</v>
+        <v>0.00039188448</v>
       </c>
       <c r="E8">
-        <v>0.0003918844800000001</v>
+        <v>0.0020330640252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9978,7 +9978,7 @@
         <v>0.27111539664</v>
       </c>
       <c r="E13">
-        <v>0.27994284576</v>
+        <v>0.2712347254641601</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9992,10 +9992,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>6.409374000586066</v>
+        <v>6.409374101107201</v>
       </c>
       <c r="E14">
-        <v>4.86145633309194</v>
+        <v>5.234397596328961</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10009,10 +10009,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>3.480527810701197</v>
+        <v>3.4805278109781</v>
       </c>
       <c r="E15">
-        <v>2.625930469947807</v>
+        <v>2.657632454878339</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10060,10 +10060,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>0.4783628366495931</v>
+        <v>0.5026672080000001</v>
       </c>
       <c r="E18">
-        <v>0.4075598592</v>
+        <v>0.4539454164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10077,10 +10077,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>82.36002647433536</v>
+        <v>82.36001881732699</v>
       </c>
       <c r="E19">
-        <v>84.68831456394578</v>
+        <v>83.75551197814104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>252.5580234874157</v>
+        <v>201.0906047852032</v>
       </c>
       <c r="E32">
-        <v>261.2277583350256</v>
+        <v>205.1932473611945</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10315,10 +10315,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>0.371798767548</v>
+        <v>0.371798751386952</v>
       </c>
       <c r="E33">
-        <v>0.472150292688</v>
+        <v>0.471297943944</v>
       </c>
     </row>
   </sheetData>
@@ -12084,10 +12084,10 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>2637.730990098062</v>
+        <v>2638.157574106574</v>
       </c>
       <c r="E2">
-        <v>2455.088869984446</v>
+        <v>2455.417290384828</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12135,10 +12135,10 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>4960.482400901003</v>
+        <v>4964.610017628221</v>
       </c>
       <c r="E5">
-        <v>5715.544808274322</v>
+        <v>5719.928689046251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12189,7 +12189,7 @@
         <v>2.851184004480001</v>
       </c>
       <c r="E8">
-        <v>1.50550461648</v>
+        <v>1.5071457960252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12274,7 +12274,7 @@
         <v>54.38912357422937</v>
       </c>
       <c r="E13">
-        <v>47.66719381551918</v>
+        <v>47.65848569522334</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12288,10 +12288,10 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>38.03743802854693</v>
+        <v>38.03743812906807</v>
       </c>
       <c r="E14">
-        <v>31.45605915199901</v>
+        <v>31.82900041523602</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12305,10 +12305,10 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>34.47837685258632</v>
+        <v>34.47837685286321</v>
       </c>
       <c r="E15">
-        <v>31.83751233594791</v>
+        <v>31.86921432087845</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12356,10 +12356,10 @@
         <v>38</v>
       </c>
       <c r="D18">
-        <v>26.30233971373992</v>
+        <v>26.32664408509032</v>
       </c>
       <c r="E18">
-        <v>25.13568457343239</v>
+        <v>25.18207013063239</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12373,10 +12373,10 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>1561.453236004873</v>
+        <v>1561.453228347865</v>
       </c>
       <c r="E19">
-        <v>1796.184643768657</v>
+        <v>1795.251841182852</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>3159.73739866346</v>
+        <v>3108.269979961247</v>
       </c>
       <c r="E32">
-        <v>3399.896194801561</v>
+        <v>3343.86168382773</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12611,10 +12611,10 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>477.4345816835481</v>
+        <v>477.434581667387</v>
       </c>
       <c r="E33">
-        <v>458.080060560688</v>
+        <v>458.079208211944</v>
       </c>
     </row>
   </sheetData>

--- a/results/initial_look/steel_2018_workbook.xlsx
+++ b/results/initial_look/steel_2018_workbook.xlsx
@@ -6280,10 +6280,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>4.840760589203172</v>
+        <v>56.2980456432</v>
       </c>
       <c r="E32">
-        <v>5.270365393194521</v>
+        <v>61.2943495128</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9724,10 +9724,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>456.1183480292032</v>
+        <v>507.5756330832</v>
       </c>
       <c r="E32">
-        <v>457.8184372931946</v>
+        <v>513.8424214128</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10298,10 +10298,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>201.0906047852032</v>
+        <v>252.5478898392</v>
       </c>
       <c r="E32">
-        <v>205.1932473611945</v>
+        <v>261.2172314808</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -12594,10 +12594,10 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>3108.269979961247</v>
+        <v>3159.727265015244</v>
       </c>
       <c r="E32">
-        <v>3343.86168382773</v>
+        <v>3399.885667947336</v>
       </c>
     </row>
     <row r="33" spans="1:5">
